--- a/profile/personal_area/downland_files/uploaded_files/Прайс Лист и склад Кабелный Завод ТИТАН.xlsx
+++ b/profile/personal_area/downland_files/uploaded_files/Прайс Лист и склад Кабелный Завод ТИТАН.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Сервис\GitExcel\sklad\2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\XAMPP\htdocs\profile\personal_area\downland_files\uploaded_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="840" windowWidth="20730" windowHeight="11100"/>
+    <workbookView xWindow="-120" yWindow="1740" windowWidth="20730" windowHeight="11100"/>
   </bookViews>
   <sheets>
     <sheet name="Кабель" sheetId="1" r:id="rId1"/>
@@ -463,6 +463,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
+  </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -620,15 +623,15 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -955,7 +958,7 @@
   <dimension ref="A1:E136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
